--- a/pred_ohlcv/54_21/2019-10-31 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-83.34018193</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-76.72677054</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-77.93494692</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-77.50474692</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-78.32124692000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-81.97104692000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-78.28914692000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-84.47104692000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-78.59781279000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88.79611279000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-95.29171279000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-92.98233722000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-92.98233722000001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-90.75023722</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-90.75023722</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-92.44260603000001</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-92.44260603000001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-94.25380603000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-89.98753392000002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-117.74618427</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-113.82670656</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-110.17198427</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-110.45468427</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-112.80650111</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-115.40900111</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-115.40900111</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-119.74613805</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-119.43363805</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-122.23813805</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-146.6832380499999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-139.9608380499999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-142.67518452</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-211.8451517399999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-217.7603517399999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-222.8153517399999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-244.0238517399999</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-227.8309850599999</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-223.2205386599999</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-225.9222386599999</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-225.9222386599999</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-231.5643386599999</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-237.7200276699999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-231.5315277099999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-226.6599277099999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-227.1561277099999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-228.0466277099999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-230.3248277099999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-228.6089277099999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-235.3670277099999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-232.3859277099999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-237.4390277099999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-211.0290217199999</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-213.27647805</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-210.79877805</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-210.33567805</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-207.28777805</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-205.0270780499999</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-207.61977805</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-204.57897805</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-201.40127805</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-203.86097805</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-203.7493714</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-201.49580732</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-431.8047828999999</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-438.5212828999998</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-433.7182828999998</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-436.6004828999999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-424.0448828999998</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-410.8952828999998</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-390.8470952099998</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-384.4934418199998</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-378.8791551099998</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-382.9766551099999</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-389.5282551099999</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-390.4585551099998</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-396.3505507899998</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-396.9980507899998</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-393.2960507899998</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-392.0924507899998</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-389.2097507899998</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-395.0169507899998</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-403.0026507899998</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-402.7117507899998</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-401.0778507899998</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-394.6196849799998</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-396.2366799399998</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-394.8633799399998</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-396.0607799399999</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-399.4645799399999</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-400.9252799399998</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-399.0260799399998</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-406.4285799399998</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-398.5513799399998</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-396.0344799399998</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-394.1954799399998</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-396.1498799399998</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-428.0127799399998</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-437.0645799399998</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-479.3667799399998</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-489.2162799399998</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-475.3950799399998</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-481.1084025899998</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-480.8823289599997</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-479.7695469799996</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-480.4644469799997</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-479.6344469799997</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-479.9674469799997</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-480.1647291999997</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-473.3281637399997</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-473.3989637399997</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-472.5638637399997</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-474.1816637399997</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-484.9006637399997</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-486.8549637399997</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-496.4740637399997</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-494.7313128299997</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-494.7752128299997</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-493.9819128299997</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-563.5512589599997</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-567.7511589599997</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-597.7698589599996</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-559.4219921099996</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-500.7678560499995</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-518.0156560499995</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-535.9691560499995</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-540.0764560499995</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-503.9220560499995</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-516.5781560499995</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-495.8957821599996</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-476.3503046199996</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-483.8107486099996</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-471.1120486099996</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-468.8124486099996</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-464.7582486099997</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-469.5659486099997</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-469.9504486099997</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-469.9280486099997</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-469.8199093199997</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-469.8992093199997</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-471.4750093199997</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-471.4408093199997</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-471.5457093199997</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-469.9222093199997</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-468.1844093199997</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-469.4820093199997</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-469.2996093199997</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-469.3042093199997</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-468.4307609699997</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-468.6944609699997</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-468.7969609699997</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-469.0782609699997</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-467.2100609699997</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-467.2100609699997</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-467.2895609699997</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-467.0555609699997</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-467.0091609699997</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-468.4221609699997</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-468.2465609699997</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-468.5986609699997</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-468.5472609699997</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-469.5565609699997</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-469.9388609699997</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-467.7693609699997</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-465.6487609699997</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-462.4073227999997</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-466.9146227999997</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-466.3588227999997</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-464.1222227999997</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-463.5570227999997</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-464.0906227999997</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-466.0019227999996</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-475.8439227999996</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-476.0498227999996</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-476.6797227999996</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-480.4512826999997</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-482.2169826999997</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-484.4665826999997</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-484.2946826999997</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-484.3827826999997</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-484.2563826999997</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-485.1686826999997</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-485.2640826999997</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-485.0107826999997</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-484.1394826999996</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-484.7237826999996</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-485.0170826999996</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-480.5029826999996</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-478.9759826999996</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-478.9879826999996</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-478.9546826999996</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-479.2525826999997</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-476.8102826999997</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-476.8102826999997</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-476.7139826999997</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-466.1705826999997</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-453.0990826999997</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-447.7152826999997</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-439.3707187599997</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-447.7660187599997</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-434.5840187599997</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-434.4927187599997</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-434.3625187599997</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-434.3625187599997</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-434.4455928899997</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-433.0508928899997</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-433.2262934799997</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-432.9989934799997</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-433.8383934799997</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-429.6244934799997</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-435.2350934799996</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-435.1934934799996</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-442.7740934799996</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-442.6498934799997</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-441.8208934799997</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-438.6310934799997</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-442.3059934799996</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-451.5820262199996</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-451.6702262199996</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-452.7321262199996</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-453.0527262199996</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-450.9821262199996</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-450.2788262199996</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-444.4552262199996</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-445.0169262199996</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-444.6148262199995</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-444.6148262199995</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-446.8117262199995</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-446.7561262199995</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-446.7561262199995</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-446.8245262199995</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-448.6030262199995</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-448.6950262199995</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-448.6950262199995</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-448.5066262199995</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-448.0866262199995</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-448.3978262199994</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-448.4277262199994</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-448.2763262199994</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-448.7785262199994</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-448.7785262199994</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-447.7456262199995</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-446.0440262199995</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-450.2227262199995</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-464.0561209099994</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-463.8952209099994</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-463.5858209099994</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-463.7330209099994</v>
       </c>
       <c r="H1015">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-463.7330209099994</v>
       </c>
       <c r="H1016">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-465.4209426699994</v>
       </c>
       <c r="H1017">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-465.5818426699994</v>
       </c>
       <c r="H1018">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-465.9605426699994</v>
       </c>
       <c r="H1019">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-463.5857426699994</v>
       </c>
       <c r="H1020">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-463.5857426699994</v>
       </c>
       <c r="H1021">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-463.6227426699994</v>
       </c>
       <c r="H1022">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-463.4940426699994</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-463.4844426699995</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-462.6663426699994</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-462.6663426699994</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1028">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1029">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-462.3326426699994</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-462.2594426699994</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-462.4017426699994</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-465.4726426699994</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-465.9749426699994</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-464.0215632199994</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-465.0263632199994</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-464.3081632199994</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-464.3081632199994</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-464.3835632199994</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-465.2903632199993</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-465.7825632199994</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-466.1828632199994</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-465.8649632199994</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-464.8512632199994</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-466.6613632199994</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-467.2305137099994</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-469.3387032299994</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-460.0347878299994</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-461.9469954599994</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-461.6203954599994</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-461.7586954599994</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-465.5701954599995</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-465.1465954599994</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-465.0433954599994</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-465.1703954599994</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-462.7064954599994</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-462.2787344799994</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-462.2787344799994</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-462.4431344799994</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-463.1475344799994</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-464.2176344799994</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-465.6714577699994</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-465.1314577699994</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-479.9526577699994</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-478.1825577699994</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-478.6448385099994</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-480.5888384699994</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-480.2570384699994</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-482.3874384699994</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-482.3874384699994</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-482.5642384699994</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-477.8531191699994</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-475.7637191699994</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-476.4373191699994</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-476.0931191699994</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-476.0931191699994</v>
       </c>
       <c r="H1086">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-467.8462191699994</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-463.6218191699994</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-551.7845342099993</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-553.2284342099993</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-559.8945814199992</v>
       </c>
       <c r="H1251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-560.2673814199992</v>
       </c>
       <c r="H1252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-564.5378814199992</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-560.9676814199992</v>
       </c>
       <c r="H1254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-562.4539814199992</v>
       </c>
       <c r="H1255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-566.3366814199992</v>
       </c>
       <c r="H1256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-570.9236243699992</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-557.4941243699992</v>
       </c>
       <c r="H1258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-554.6682243699992</v>
       </c>
       <c r="H1259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-566.2527243699992</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-574.2352126399992</v>
       </c>
       <c r="H1261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-582.3197126399992</v>
       </c>
       <c r="H1262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-582.3197126399992</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-593.1420126399993</v>
       </c>
       <c r="H1264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-605.1090995199993</v>
       </c>
       <c r="H1265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-594.3219995199993</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-587.0780995499993</v>
       </c>
       <c r="H1267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-597.6914995499992</v>
       </c>
       <c r="H1268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-605.1374711399992</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-612.0096711399992</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-601.5647711399993</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-590.0255711399992</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-577.4545773499992</v>
       </c>
       <c r="H1273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-581.5525773799992</v>
       </c>
       <c r="H1274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-587.3806773799992</v>
       </c>
       <c r="H1275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-585.7875851199992</v>
       </c>
       <c r="H1285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-585.9218851199992</v>
       </c>
       <c r="H1290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-584.2981851199992</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-580.0715851199992</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-583.5109851199993</v>
       </c>
       <c r="H1297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-581.4207851199993</v>
       </c>
       <c r="H1298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-583.0143733299993</v>
       </c>
       <c r="H1300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-584.9460377099994</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-587.0300377099993</v>
       </c>
       <c r="H1302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-585.8925377099993</v>
       </c>
       <c r="H1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-585.8436377099993</v>
       </c>
       <c r="H1304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-586.1808377099993</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-584.2654377099993</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-571.5139020899993</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-569.7214020899993</v>
       </c>
       <c r="H1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-566.0954020899993</v>
       </c>
       <c r="H1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-574.2784764999993</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-576.3250690199993</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-581.4059690199992</v>
       </c>
       <c r="H1325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-582.9540775399993</v>
       </c>
       <c r="H1326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-584.2515775399993</v>
       </c>
       <c r="H1327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-579.8742961999993</v>
       </c>
       <c r="H1328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-575.7168961999993</v>
       </c>
       <c r="H1329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-577.0580961999992</v>
       </c>
       <c r="H1330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-576.3662532999992</v>
       </c>
       <c r="H1331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-588.5313704499993</v>
       </c>
       <c r="H1332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-588.6476704499993</v>
       </c>
       <c r="H1333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-588.4096704499992</v>
       </c>
       <c r="H1334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-589.3625704499992</v>
       </c>
       <c r="H1335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-584.3259704499992</v>
       </c>
       <c r="H1336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-586.8001704499992</v>
       </c>
       <c r="H1337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-586.6301704499992</v>
       </c>
       <c r="H1338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-584.1519345999992</v>
       </c>
       <c r="H1339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-583.2960345999992</v>
       </c>
       <c r="H1340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>-582.7644345999992</v>
       </c>
       <c r="H1341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-586.9048345999992</v>
       </c>
       <c r="H1342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-587.5583345999992</v>
       </c>
       <c r="H1343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-590.3448345999992</v>
       </c>
       <c r="H1344">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-595.6860345799993</v>
       </c>
       <c r="H1345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-595.5008345799993</v>
       </c>
       <c r="H1346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-601.3281345799993</v>
       </c>
       <c r="H1347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-602.5550345799993</v>
       </c>
       <c r="H1348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>-599.8144345799993</v>
       </c>
       <c r="H1349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>-600.7038345799994</v>
       </c>
       <c r="H1350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>-602.2410345799993</v>
       </c>
       <c r="H1351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-605.3609779699993</v>
       </c>
       <c r="H1352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>-611.0843779699993</v>
       </c>
       <c r="H1353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-611.4613779699993</v>
       </c>
       <c r="H1354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-609.7680779699992</v>
       </c>
       <c r="H1355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-83.34018193</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-76.72677054</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-77.93494692</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-77.50474692</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-78.32124692000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-81.97104692000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-78.28914692000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-84.47104692000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-78.59781279000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-88.79611279000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-95.29171279000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-92.98233722000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-92.98233722000001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-90.75023722</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-90.75023722</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-92.44260603000001</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-92.44260603000001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-94.25380603000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-77.15112836000002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-74.41192836000002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-86.06822836000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-89.98753392000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-89.32333392000002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-89.44693392000002</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-91.98323392000002</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-91.98323392000002</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-97.36423392000002</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-97.36423392000002</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-96.34273392000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-104.66863392</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-122.19904206</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-114.86245022</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-115.93155022</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-113.78325022</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-114.54265022</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-114.89885022</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-115.0626607</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-109.3381607</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-94.13931455000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-90.37371455</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-92.20621455</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-90.90061455</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-91.4711745</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-90.4376745</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-90.15017450000001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-90.90731423000001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-90.58502832000001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-97.45002832</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-96.17742085</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-110.22182085</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-106.30766911</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-112.57596911</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-109.4058691</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-113.6023691</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-126.0169691</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-135.19047224</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-115.80913103</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-106.75538348</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-105.39592865</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-108.63832865</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-98.99842053000002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-98.99842053000002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-99.46842053000002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-123.02553347</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-120.24433099</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-112.4109307</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-125.66784659</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-122.10864659</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-125.01084659</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-116.41593822</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-113.11498427</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-115.60808427</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-115.40900111</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-125.82043805</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-136.92453805</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-138.75633805</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-140.3392380499999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-140.3392380499999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-141.6080845199999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-142.5121845199999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-141.45928452</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-152.8914845199999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-155.48058452</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-154.4879845199999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-153.6780845199999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-155.1761845199999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-155.9229845199999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-155.9229845199999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-153.8403845199999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-150.4578845199999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-147.1186845199999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-147.1186845199999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-148.4876845199999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-146.1959845199999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-148.4577348999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-149.9955348999999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-144.7520354899999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-153.55388199</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-150.3865819899999</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-148.66029291</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-157.4761789</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-157.4761789</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-151.4733788999999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-145.6875064099999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-174.5134064099999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-160.5701817699999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-160.5701817699999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-160.5701817699999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-157.6983536999999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-160.9888209399999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-164.9097209399999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-164.9097209399999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-161.3635209399999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-160.2891209399999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-160.5072209399999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-153.4217209399999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-150.4566209399999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-153.9300209399999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-157.2488209399999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-166.1167209399999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-165.5689209399999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-168.2928209399999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-164.5372209399999</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-168.3081209399999</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-168.9350209399999</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-165.0964209399999</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-170.4650209399999</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-181.8333139799999</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-180.4412853399999</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-180.4412853399999</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-181.5184853399999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-182.7245853399999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-183.3680853399999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-185.0680853399999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-185.9435853399999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-181.5708853399998</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-180.6804103999999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-182.0782103999998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-184.3899527899999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-186.7881349199999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-186.7881349199999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-186.7881349199999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-197.8802349199999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-196.3315349199999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-191.8833349199999</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-192.5461349199999</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-195.2870280999999</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-211.7132228999999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-213.8751582199999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-212.2580517399999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-215.6470517399999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-211.8451517399999</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-217.7603517399999</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-222.8153517399999</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-244.0238517399999</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-227.8309850599999</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-223.2205386599999</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-225.9222386599999</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-225.9222386599999</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-231.5643386599999</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-237.7200276699999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-231.5315277099999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-226.6599277099999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-227.1561277099999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-228.0466277099999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-230.3248277099999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-228.6089277099999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-235.3670277099999</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-232.3859277099999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-237.4390277099999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-209.6537217199999</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-211.0290217199999</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-213.27647805</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-210.79877805</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-210.33567805</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-207.28777805</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-203.7493714</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-209.4992714</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-212.3081714</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-211.7130714</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-204.6762714</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-200.48680732</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-201.49580732</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-191.53010732</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-188.98930732</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-185.69820732</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-195.53960732</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-197.1549073199999</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-194.5921073199999</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-195.6874126199999</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-196.4863957999999</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-200.9771012299999</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-198.8371013299999</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-197.7927013299999</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-202.06870133</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-200.17680133</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-205.60570179</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-204.32250179</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-206.08570179</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-206.76960179</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-206.21530179</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-212.65095766</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-217.61419875</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-217.61419875</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-218.37229875</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-218.05699875</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-218.34346447</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-218.63796447</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-224.41608587</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-431.8047828999999</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-438.5212828999998</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-433.7182828999998</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-436.6004828999999</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-424.0448828999998</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-410.8952828999998</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-390.8470952099998</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-384.4934418199998</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-378.8791551099998</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-382.9766551099999</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-389.5282551099999</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-390.4585551099998</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-396.3505507899998</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-396.9980507899998</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-393.2960507899998</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-392.0924507899998</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-389.2097507899998</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-395.0169507899998</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-403.0026507899998</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-402.7117507899998</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-401.0778507899998</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-394.6196849799998</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-396.2366799399998</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-394.8633799399998</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-396.0607799399999</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-399.4645799399999</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-400.9252799399998</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-399.0260799399998</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-406.4285799399998</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-398.5513799399998</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-396.0344799399998</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-394.1954799399998</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-396.1498799399998</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-428.0127799399998</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-437.0645799399998</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-479.3667799399998</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-489.2162799399998</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-475.3950799399998</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-481.1084025899998</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-480.8823289599997</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-479.7695469799996</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-480.4644469799997</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-479.6344469799997</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-479.9674469799997</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-480.1647291999997</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-473.3281637399997</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-473.3989637399997</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-472.5638637399997</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-474.1816637399997</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-484.9006637399997</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-486.8549637399997</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-496.4740637399997</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-494.7313128299997</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-494.7752128299997</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-493.9819128299997</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-560.7697589599996</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-563.5512589599997</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-567.7511589599997</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-597.7698589599996</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-559.4219921099996</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-500.7678560499995</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-518.0156560499995</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-535.9691560499995</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-540.0764560499995</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-503.9220560499995</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-516.5781560499995</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-495.8957821599996</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-476.3503046199996</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-483.8107486099996</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-471.1120486099996</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-468.8124486099996</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-464.7582486099997</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-469.5659486099997</v>
       </c>
       <c r="H784">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-469.9504486099997</v>
       </c>
       <c r="H785">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-469.9280486099997</v>
       </c>
       <c r="H786">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-469.8199093199997</v>
       </c>
       <c r="H787">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-469.8992093199997</v>
       </c>
       <c r="H788">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-471.4750093199997</v>
       </c>
       <c r="H789">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-471.4408093199997</v>
       </c>
       <c r="H790">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-471.5457093199997</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-469.9222093199997</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-468.1844093199997</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-469.4820093199997</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-469.2996093199997</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-469.3042093199997</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-468.4307609699997</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-468.6944609699997</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-468.7969609699997</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-469.0782609699997</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-467.2100609699997</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-467.2100609699997</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-467.2895609699997</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-467.0555609699997</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-467.0091609699997</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-468.4221609699997</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-468.2465609699997</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-468.5986609699997</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-468.5472609699997</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-469.5565609699997</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-469.9388609699997</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-467.7693609699997</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-465.6487609699997</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-462.4073227999997</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-466.9146227999997</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-466.3588227999997</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-464.1222227999997</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-463.5570227999997</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-464.0906227999997</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-466.0019227999996</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-475.8439227999996</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-476.0498227999996</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-476.6797227999996</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-480.4512826999997</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-482.2169826999997</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-484.4665826999997</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-484.2946826999997</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-484.3827826999997</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>-484.2563826999997</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-485.1686826999997</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-485.2640826999997</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-485.0107826999997</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-484.1394826999996</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-484.7237826999996</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-485.0170826999996</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-480.5029826999996</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-478.9759826999996</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-478.9879826999996</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-478.9546826999996</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-479.2525826999997</v>
       </c>
       <c r="H862">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-476.8102826999997</v>
       </c>
       <c r="H863">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-476.8102826999997</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>-476.7139826999997</v>
       </c>
       <c r="H865">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>-466.1705826999997</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-464.8228826999997</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-453.0990826999997</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-447.7152826999997</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-439.3707187599997</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-447.7660187599997</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-434.5840187599997</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-434.4927187599997</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-434.3625187599997</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-434.3625187599997</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-434.4455928899997</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-433.0508928899997</v>
       </c>
       <c r="H879">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-433.2262934799997</v>
       </c>
       <c r="H880">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-432.9989934799997</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-433.8383934799997</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-429.6244934799997</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-435.2350934799996</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-435.1934934799996</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-442.7740934799996</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-442.6498934799997</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-441.8208934799997</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-438.6310934799997</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-442.3059934799996</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-451.5820262199996</v>
       </c>
       <c r="H893">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-451.6702262199996</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-452.7321262199996</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-453.0527262199996</v>
       </c>
       <c r="H896">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-450.9821262199996</v>
       </c>
       <c r="H897">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-450.2788262199996</v>
       </c>
       <c r="H898">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-444.4552262199996</v>
       </c>
       <c r="H899">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-445.0169262199996</v>
       </c>
       <c r="H900">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-444.6148262199995</v>
       </c>
       <c r="H901">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-444.6148262199995</v>
       </c>
       <c r="H902">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-446.8117262199995</v>
       </c>
       <c r="H904">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-446.7561262199995</v>
       </c>
       <c r="H905">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-446.7561262199995</v>
       </c>
       <c r="H906">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-446.8245262199995</v>
       </c>
       <c r="H907">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-448.6030262199995</v>
       </c>
       <c r="H908">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-448.6950262199995</v>
       </c>
       <c r="H909">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-448.6950262199995</v>
       </c>
       <c r="H910">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-448.5066262199995</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-448.0866262199995</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-448.3978262199994</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-448.4277262199994</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-448.2763262199994</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-448.7785262199994</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-448.7785262199994</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-447.7456262199995</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-446.0440262199995</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-450.2227262199995</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-464.0561209099994</v>
       </c>
       <c r="H998">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-463.8952209099994</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-463.5858209099994</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -26782,7 +26782,7 @@
         <v>-463.7330209099994</v>
       </c>
       <c r="H1015">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016" spans="1:8">
@@ -26808,7 +26808,7 @@
         <v>-463.7330209099994</v>
       </c>
       <c r="H1016">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1017" spans="1:8">
@@ -26834,7 +26834,7 @@
         <v>-465.4209426699994</v>
       </c>
       <c r="H1017">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018" spans="1:8">
@@ -26860,7 +26860,7 @@
         <v>-465.5818426699994</v>
       </c>
       <c r="H1018">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019" spans="1:8">
@@ -26886,7 +26886,7 @@
         <v>-465.9605426699994</v>
       </c>
       <c r="H1019">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020" spans="1:8">
@@ -26912,7 +26912,7 @@
         <v>-463.5857426699994</v>
       </c>
       <c r="H1020">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1021" spans="1:8">
@@ -26938,7 +26938,7 @@
         <v>-463.5857426699994</v>
       </c>
       <c r="H1021">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1022" spans="1:8">
@@ -26964,7 +26964,7 @@
         <v>-463.6227426699994</v>
       </c>
       <c r="H1022">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1023" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-463.4940426699994</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-463.4844426699995</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-462.6663426699994</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-462.6663426699994</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27120,7 +27120,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1028">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:8">
@@ -27146,7 +27146,7 @@
         <v>-462.4498426699994</v>
       </c>
       <c r="H1029">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-462.3326426699994</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-462.2594426699994</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-462.4017426699994</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-465.4726426699994</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-465.9749426699994</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1038">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1039">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-465.5925632199994</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-464.0215632199994</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-465.0263632199994</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-464.3081632199994</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-464.3081632199994</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-464.3835632199994</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-465.2903632199993</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-465.7825632199994</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-466.1828632199994</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-465.8649632199994</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-464.8512632199994</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-466.6613632199994</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-467.2305137099994</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-469.3387032299994</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-460.0347878299994</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-461.9469954599994</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-461.6203954599994</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-461.7586954599994</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-465.5701954599995</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-465.1465954599994</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-465.0433954599994</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-465.1703954599994</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-462.7064954599994</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-462.2787344799994</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-462.2787344799994</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-462.4431344799994</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-463.1475344799994</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-464.2176344799994</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-465.6714577699994</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-465.1314577699994</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-479.9526577699994</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-478.1825577699994</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-478.6448385099994</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-480.5888384699994</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-480.2570384699994</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-482.3874384699994</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-482.3874384699994</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-482.5642384699994</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-480.3380191699994</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-477.8531191699994</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-475.7637191699994</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-476.4373191699994</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-476.0931191699994</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-476.0931191699994</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-467.8462191699994</v>
       </c>
       <c r="H1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-463.6218191699994</v>
       </c>
       <c r="H1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-551.7845342099993</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-553.2284342099993</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32918,7 +32918,7 @@
         <v>-559.8945814199992</v>
       </c>
       <c r="H1251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:8">
@@ -32944,7 +32944,7 @@
         <v>-560.2673814199992</v>
       </c>
       <c r="H1252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-564.5378814199992</v>
       </c>
       <c r="H1253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -32996,7 +32996,7 @@
         <v>-560.9676814199992</v>
       </c>
       <c r="H1254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:8">
@@ -33022,7 +33022,7 @@
         <v>-562.4539814199992</v>
       </c>
       <c r="H1255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:8">
@@ -33048,7 +33048,7 @@
         <v>-566.3366814199992</v>
       </c>
       <c r="H1256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-570.9236243699992</v>
       </c>
       <c r="H1257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33100,7 +33100,7 @@
         <v>-557.4941243699992</v>
       </c>
       <c r="H1258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:8">
@@ -33126,7 +33126,7 @@
         <v>-554.6682243699992</v>
       </c>
       <c r="H1259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-566.2527243699992</v>
       </c>
       <c r="H1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-574.2352126399992</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-582.3197126399992</v>
       </c>
       <c r="H1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-582.3197126399992</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33256,7 +33256,7 @@
         <v>-593.1420126399993</v>
       </c>
       <c r="H1264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:8">
@@ -33282,7 +33282,7 @@
         <v>-605.1090995199993</v>
       </c>
       <c r="H1265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-594.3219995199993</v>
       </c>
       <c r="H1266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33334,7 +33334,7 @@
         <v>-587.0780995499993</v>
       </c>
       <c r="H1267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:8">
@@ -33360,7 +33360,7 @@
         <v>-597.6914995499992</v>
       </c>
       <c r="H1268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-605.1374711399992</v>
       </c>
       <c r="H1269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-612.0096711399992</v>
       </c>
       <c r="H1270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-601.5647711399993</v>
       </c>
       <c r="H1271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-590.0255711399992</v>
       </c>
       <c r="H1272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-577.4545773499992</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-581.5525773799992</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33542,7 +33542,7 @@
         <v>-587.3806773799992</v>
       </c>
       <c r="H1275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>-585.7875851199992</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>-584.6927851199991</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>-585.9218851199992</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>-585.9218851199992</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>-584.2981851199992</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>-580.0715851199992</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>-580.0715851199992</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>-580.4096851199993</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>-579.9135851199993</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>-583.6030851199993</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>-583.5109851199993</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>-581.4207851199993</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>-579.7160851199993</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>-583.0143733299993</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>-584.9460377099994</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>-587.0300377099993</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>-585.8925377099993</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>-585.8436377099993</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-586.1808377099993</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-584.2654377099993</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-571.5139020899993</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-569.7214020899993</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-566.0954020899993</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>-565.5799690199993</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>-567.0669929199994</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>-577.4127764999994</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>-577.4127764999994</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>-574.2784764999993</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>-574.2784764999993</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>-576.3250690199993</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>-576.0366690199993</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>-575.3705690199993</v>
       </c>
       <c r="H1318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>-574.8980865099993</v>
       </c>
       <c r="H1319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>-572.9312690199993</v>
       </c>
       <c r="H1320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>-573.2842690199992</v>
       </c>
       <c r="H1321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>-573.2842690199992</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>-578.7849690199993</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>-578.8760690199992</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>-581.4059690199992</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>-582.9540775399993</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>-584.2515775399993</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>-579.8742961999993</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>-575.7168961999993</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>-577.0580961999992</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>-576.3662532999992</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>-588.5313704499993</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1333" spans="1:8">
@@ -35050,7 +35050,7 @@
         <v>-588.6476704499993</v>
       </c>
       <c r="H1333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1334" spans="1:8">
@@ -35076,7 +35076,7 @@
         <v>-588.4096704499992</v>
       </c>
       <c r="H1334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1335" spans="1:8">
@@ -35102,7 +35102,7 @@
         <v>-589.3625704499992</v>
       </c>
       <c r="H1335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1336" spans="1:8">
@@ -35128,7 +35128,7 @@
         <v>-584.3259704499992</v>
       </c>
       <c r="H1336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337" spans="1:8">
@@ -35154,7 +35154,7 @@
         <v>-586.8001704499992</v>
       </c>
       <c r="H1337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1338" spans="1:8">
@@ -35180,7 +35180,7 @@
         <v>-586.6301704499992</v>
       </c>
       <c r="H1338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1339" spans="1:8">
@@ -35206,7 +35206,7 @@
         <v>-584.1519345999992</v>
       </c>
       <c r="H1339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1340" spans="1:8">
@@ -35232,7 +35232,7 @@
         <v>-583.2960345999992</v>
       </c>
       <c r="H1340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1341" spans="1:8">
@@ -35258,7 +35258,7 @@
         <v>-582.7644345999992</v>
       </c>
       <c r="H1341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1342" spans="1:8">
@@ -35284,7 +35284,7 @@
         <v>-586.9048345999992</v>
       </c>
       <c r="H1342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1343" spans="1:8">
@@ -35310,7 +35310,7 @@
         <v>-587.5583345999992</v>
       </c>
       <c r="H1343">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1344" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-590.3448345999992</v>
       </c>
       <c r="H1344">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-595.6860345799993</v>
       </c>
       <c r="H1345">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-595.5008345799993</v>
       </c>
       <c r="H1346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-601.3281345799993</v>
       </c>
       <c r="H1347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-602.5550345799993</v>
       </c>
       <c r="H1348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>-599.8144345799993</v>
       </c>
       <c r="H1349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>-600.7038345799994</v>
       </c>
       <c r="H1350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>-602.2410345799993</v>
       </c>
       <c r="H1351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-605.3609779699993</v>
       </c>
       <c r="H1352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>-611.0843779699993</v>
       </c>
       <c r="H1353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-611.4613779699993</v>
       </c>
       <c r="H1354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-609.7680779699992</v>
       </c>
       <c r="H1355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
